--- a/Analytics/F1/RefereeFirstCard_f1.xlsx
+++ b/Analytics/F1/RefereeFirstCard_f1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="39">
   <si>
     <t>Referee</t>
   </si>
@@ -70,9 +70,18 @@
     <t>15</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Benoît Bastien</t>
+  </si>
+  <si>
     <t>Willy Delajod</t>
   </si>
   <si>
+    <t>Marc Bollengier</t>
+  </si>
+  <si>
     <t>Jeremy Stinat</t>
   </si>
   <si>
@@ -82,10 +91,16 @@
     <t>Jérémie Pignard</t>
   </si>
   <si>
-    <t>Benoît Bastien</t>
-  </si>
-  <si>
-    <t>Marc Bollengier</t>
+    <t>Gaël Angoula</t>
+  </si>
+  <si>
+    <t>Benoît Millot</t>
+  </si>
+  <si>
+    <t>Thomas Léonard</t>
+  </si>
+  <si>
+    <t>Hakim Ben El Hadj Salem</t>
   </si>
   <si>
     <t>Stéphanie Frappart</t>
@@ -97,25 +112,16 @@
     <t>Florent Batta</t>
   </si>
   <si>
-    <t>Gaël Angoula</t>
-  </si>
-  <si>
     <t>Jérôme Brisard</t>
   </si>
   <si>
     <t>Eric Wattellier</t>
   </si>
   <si>
-    <t>Benoît Millot</t>
-  </si>
-  <si>
-    <t>Hakim Ben El Hadj Salem</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Thomas Léonard</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>François Letexier</t>
@@ -192,21 +198,21 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="e">
-        <v>#N/A</v>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -214,18 +220,18 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
+      <c r="B5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -236,7 +242,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -247,7 +253,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -258,7 +264,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -269,10 +275,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -280,10 +286,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -291,10 +297,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -302,10 +308,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -313,7 +319,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -324,7 +330,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -335,7 +341,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -346,9 +352,20 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -390,10 +407,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -401,10 +418,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -412,10 +429,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -423,10 +440,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -434,7 +451,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -445,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -456,7 +473,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -467,10 +484,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -478,10 +495,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -489,10 +506,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -500,10 +517,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -511,10 +528,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -522,7 +539,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -533,7 +550,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -541,12 +558,34 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -588,10 +627,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -599,10 +638,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -610,10 +649,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -621,10 +660,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -632,10 +671,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -643,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -654,10 +693,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -665,10 +704,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -676,10 +715,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -687,10 +726,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -698,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -709,9 +748,42 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -753,10 +825,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -764,10 +836,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +847,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -789,7 +861,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -797,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -808,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -819,9 +891,31 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -851,8 +945,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="e">
-        <v>#N/A</v>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -862,11 +956,11 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
+      <c r="B3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -874,9 +968,53 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -907,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -918,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -929,9 +1067,53 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.0</v>
       </c>
     </row>
